--- a/natmiOut/OldD2/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -85,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Itga2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.848146413516493</v>
+        <v>0.3375105</v>
       </c>
       <c r="H2">
-        <v>0.848146413516493</v>
+        <v>0.675021</v>
       </c>
       <c r="I2">
-        <v>0.4293551132336417</v>
+        <v>0.1178389669178411</v>
       </c>
       <c r="J2">
-        <v>0.4293551132336417</v>
+        <v>0.08278648937091339</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N2">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O2">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P2">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q2">
-        <v>5.848994592406166</v>
+        <v>2.33437297892775</v>
       </c>
       <c r="R2">
-        <v>5.848994592406166</v>
+        <v>9.337491915711</v>
       </c>
       <c r="S2">
-        <v>0.2585151385972391</v>
+        <v>0.0694203940387999</v>
       </c>
       <c r="T2">
-        <v>0.2585151385972391</v>
+        <v>0.04209383735847084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.848146413516493</v>
+        <v>0.3375105</v>
       </c>
       <c r="H3">
-        <v>0.848146413516493</v>
+        <v>0.675021</v>
       </c>
       <c r="I3">
-        <v>0.4293551132336417</v>
+        <v>0.1178389669178411</v>
       </c>
       <c r="J3">
-        <v>0.4293551132336417</v>
+        <v>0.08278648937091339</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N3">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O3">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P3">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q3">
-        <v>0.710122401649978</v>
+        <v>0.315254607616</v>
       </c>
       <c r="R3">
-        <v>0.710122401649978</v>
+        <v>1.891527645696</v>
       </c>
       <c r="S3">
-        <v>0.03138614477809391</v>
+        <v>0.009375150963794343</v>
       </c>
       <c r="T3">
-        <v>0.03138614477809391</v>
+        <v>0.008527092477907216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.848146413516493</v>
+        <v>0.3375105</v>
       </c>
       <c r="H4">
-        <v>0.848146413516493</v>
+        <v>0.675021</v>
       </c>
       <c r="I4">
-        <v>0.4293551132336417</v>
+        <v>0.1178389669178411</v>
       </c>
       <c r="J4">
-        <v>0.4293551132336417</v>
+        <v>0.08278648937091339</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N4">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O4">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P4">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q4">
-        <v>2.281275137729619</v>
+        <v>0.0120737631165</v>
       </c>
       <c r="R4">
-        <v>2.281275137729619</v>
+        <v>0.07244257869899999</v>
       </c>
       <c r="S4">
-        <v>0.1008282960586562</v>
+        <v>0.0003590537590370644</v>
       </c>
       <c r="T4">
-        <v>0.1008282960586562</v>
+        <v>0.000326574432739601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.848146413516493</v>
+        <v>0.3375105</v>
       </c>
       <c r="H5">
-        <v>0.848146413516493</v>
+        <v>0.675021</v>
       </c>
       <c r="I5">
-        <v>0.4293551132336417</v>
+        <v>0.1178389669178411</v>
       </c>
       <c r="J5">
-        <v>0.4293551132336417</v>
+        <v>0.08278648937091339</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N5">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O5">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P5">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q5">
-        <v>0.8739160868832073</v>
+        <v>0.021815553685</v>
       </c>
       <c r="R5">
-        <v>0.8739160868832073</v>
+        <v>0.13089332211</v>
       </c>
       <c r="S5">
-        <v>0.03862553379965252</v>
+        <v>0.0006487585088835824</v>
       </c>
       <c r="T5">
-        <v>0.03862553379965252</v>
+        <v>0.0005900730369509225</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.817400546469663</v>
+        <v>0.3375105</v>
       </c>
       <c r="H6">
-        <v>0.817400546469663</v>
+        <v>0.675021</v>
       </c>
       <c r="I6">
-        <v>0.4137907071158041</v>
+        <v>0.1178389669178411</v>
       </c>
       <c r="J6">
-        <v>0.4137907071158041</v>
+        <v>0.08278648937091339</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.896208601715</v>
+        <v>2.689952</v>
       </c>
       <c r="N6">
-        <v>6.896208601715</v>
+        <v>8.069856</v>
       </c>
       <c r="O6">
-        <v>0.6021009896685757</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P6">
-        <v>0.6021009896685757</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q6">
-        <v>5.636964679610632</v>
+        <v>0.907887044496</v>
       </c>
       <c r="R6">
-        <v>5.636964679610632</v>
+        <v>5.447322266975999</v>
       </c>
       <c r="S6">
-        <v>0.2491437942700854</v>
+        <v>0.02699906010760265</v>
       </c>
       <c r="T6">
-        <v>0.2491437942700854</v>
+        <v>0.02455677601813533</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.817400546469663</v>
+        <v>0.3375105</v>
       </c>
       <c r="H7">
-        <v>0.817400546469663</v>
+        <v>0.675021</v>
       </c>
       <c r="I7">
-        <v>0.4137907071158041</v>
+        <v>0.1178389669178411</v>
       </c>
       <c r="J7">
-        <v>0.4137907071158041</v>
+        <v>0.08278648937091339</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8372639326572699</v>
+        <v>1.099586</v>
       </c>
       <c r="N7">
-        <v>0.8372639326572699</v>
+        <v>2.199172</v>
       </c>
       <c r="O7">
-        <v>0.07310066611694117</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P7">
-        <v>0.07310066611694117</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q7">
-        <v>0.6843799960933915</v>
+        <v>0.371121820653</v>
       </c>
       <c r="R7">
-        <v>0.6843799960933915</v>
+        <v>1.484487282612</v>
       </c>
       <c r="S7">
-        <v>0.03024837632316539</v>
+        <v>0.01103654953972352</v>
       </c>
       <c r="T7">
-        <v>0.03024837632316539</v>
+        <v>0.006692136046709473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.817400546469663</v>
+        <v>0.9353656666666668</v>
       </c>
       <c r="H8">
-        <v>0.817400546469663</v>
+        <v>2.806097</v>
       </c>
       <c r="I8">
-        <v>0.4137907071158041</v>
+        <v>0.3265750957389998</v>
       </c>
       <c r="J8">
-        <v>0.4137907071158041</v>
+        <v>0.3441476923892027</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.6897185454941</v>
+        <v>6.9164455</v>
       </c>
       <c r="N8">
-        <v>2.6897185454941</v>
+        <v>13.832891</v>
       </c>
       <c r="O8">
-        <v>0.2348366025020147</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P8">
-        <v>0.2348366025020147</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q8">
-        <v>2.198577408936464</v>
+        <v>6.469405656071167</v>
       </c>
       <c r="R8">
-        <v>2.198577408936464</v>
+        <v>38.816433936427</v>
       </c>
       <c r="S8">
-        <v>0.09717320380598164</v>
+        <v>0.192389431292848</v>
       </c>
       <c r="T8">
-        <v>0.09717320380598164</v>
+        <v>0.1749862459539673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,309 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.817400546469663</v>
+        <v>0.9353656666666668</v>
       </c>
       <c r="H9">
-        <v>0.817400546469663</v>
+        <v>2.806097</v>
       </c>
       <c r="I9">
-        <v>0.4137907071158041</v>
+        <v>0.3265750957389998</v>
       </c>
       <c r="J9">
-        <v>0.4137907071158041</v>
+        <v>0.3441476923892027</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.03038351982162</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N9">
-        <v>1.03038351982162</v>
+        <v>2.802176</v>
       </c>
       <c r="O9">
-        <v>0.08996174171246844</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P9">
-        <v>0.08996174171246844</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q9">
-        <v>0.842236052175527</v>
+        <v>0.8736864074524445</v>
       </c>
       <c r="R9">
-        <v>0.842236052175527</v>
+        <v>7.863177667072001</v>
       </c>
       <c r="S9">
-        <v>0.03722533271657164</v>
+        <v>0.02598198969024709</v>
       </c>
       <c r="T9">
-        <v>0.03722533271657164</v>
+        <v>0.03544756181063701</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.309849133771223</v>
+        <v>0.9353656666666668</v>
       </c>
       <c r="H10">
-        <v>0.309849133771223</v>
+        <v>2.806097</v>
       </c>
       <c r="I10">
-        <v>0.1568541796505542</v>
+        <v>0.3265750957389998</v>
       </c>
       <c r="J10">
-        <v>0.1568541796505542</v>
+        <v>0.3441476923892027</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.896208601715</v>
+        <v>0.035773</v>
       </c>
       <c r="N10">
-        <v>6.896208601715</v>
+        <v>0.107319</v>
       </c>
       <c r="O10">
-        <v>0.6021009896685757</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P10">
-        <v>0.6021009896685757</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q10">
-        <v>2.13678426154705</v>
+        <v>0.03346083599366667</v>
       </c>
       <c r="R10">
-        <v>2.13678426154705</v>
+        <v>0.301147523943</v>
       </c>
       <c r="S10">
-        <v>0.09444205680125127</v>
+        <v>0.0009950699569076416</v>
       </c>
       <c r="T10">
-        <v>0.09444205680125127</v>
+        <v>0.001357586706172543</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.309849133771223</v>
+        <v>0.9353656666666668</v>
       </c>
       <c r="H11">
-        <v>0.309849133771223</v>
+        <v>2.806097</v>
       </c>
       <c r="I11">
-        <v>0.1568541796505542</v>
+        <v>0.3265750957389998</v>
       </c>
       <c r="J11">
-        <v>0.1568541796505542</v>
+        <v>0.3441476923892027</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.8372639326572699</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N11">
-        <v>0.8372639326572699</v>
+        <v>0.19391</v>
       </c>
       <c r="O11">
-        <v>0.07310066611694117</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P11">
-        <v>0.07310066611694117</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q11">
-        <v>0.2594255042717427</v>
+        <v>0.06045891880777779</v>
       </c>
       <c r="R11">
-        <v>0.2594255042717427</v>
+        <v>0.5441302692700001</v>
       </c>
       <c r="S11">
-        <v>0.01146614501568187</v>
+        <v>0.001797948316178503</v>
       </c>
       <c r="T11">
-        <v>0.01146614501568187</v>
+        <v>0.002452963950408762</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.309849133771223</v>
+        <v>0.9353656666666668</v>
       </c>
       <c r="H12">
-        <v>0.309849133771223</v>
+        <v>2.806097</v>
       </c>
       <c r="I12">
-        <v>0.1568541796505542</v>
+        <v>0.3265750957389998</v>
       </c>
       <c r="J12">
-        <v>0.1568541796505542</v>
+        <v>0.3441476923892027</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.6897185454941</v>
+        <v>2.689952</v>
       </c>
       <c r="N12">
-        <v>2.6897185454941</v>
+        <v>8.069856</v>
       </c>
       <c r="O12">
-        <v>0.2348366025020147</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P12">
-        <v>0.2348366025020147</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q12">
-        <v>0.8334069614097407</v>
+        <v>2.516088745781333</v>
       </c>
       <c r="R12">
-        <v>0.8334069614097407</v>
+        <v>22.644798712032</v>
       </c>
       <c r="S12">
-        <v>0.0368351026373768</v>
+        <v>0.07482432059719968</v>
       </c>
       <c r="T12">
-        <v>0.0368351026373768</v>
+        <v>0.1020837803774424</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9353656666666668</v>
+      </c>
+      <c r="H13">
+        <v>2.806097</v>
+      </c>
+      <c r="I13">
+        <v>0.3265750957389998</v>
+      </c>
+      <c r="J13">
+        <v>0.3441476923892027</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.099586</v>
+      </c>
+      <c r="N13">
+        <v>2.199172</v>
+      </c>
+      <c r="O13">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P13">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q13">
+        <v>1.028514991947333</v>
+      </c>
+      <c r="R13">
+        <v>6.171089951684</v>
+      </c>
+      <c r="S13">
+        <v>0.03058633588561893</v>
+      </c>
+      <c r="T13">
+        <v>0.02781955359057468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.330226</v>
+      </c>
+      <c r="H14">
+        <v>0.9906779999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.115295644696716</v>
+      </c>
+      <c r="J14">
+        <v>0.1214995588537212</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.9164455</v>
+      </c>
+      <c r="N14">
+        <v>13.832891</v>
+      </c>
+      <c r="O14">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P14">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q14">
+        <v>2.283990131683</v>
+      </c>
+      <c r="R14">
+        <v>13.703940790098</v>
+      </c>
+      <c r="S14">
+        <v>0.06792209143673081</v>
+      </c>
+      <c r="T14">
+        <v>0.06177798706501749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.330226</v>
+      </c>
+      <c r="H15">
+        <v>0.9906779999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.115295644696716</v>
+      </c>
+      <c r="J15">
+        <v>0.1214995588537212</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N15">
+        <v>2.802176</v>
+      </c>
+      <c r="O15">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P15">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q15">
+        <v>0.3084504572586667</v>
+      </c>
+      <c r="R15">
+        <v>2.776054115328</v>
+      </c>
+      <c r="S15">
+        <v>0.00917280677836675</v>
+      </c>
+      <c r="T15">
+        <v>0.01251457794917219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.330226</v>
+      </c>
+      <c r="H16">
+        <v>0.9906779999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.115295644696716</v>
+      </c>
+      <c r="J16">
+        <v>0.1214995588537212</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.035773</v>
+      </c>
+      <c r="N16">
+        <v>0.107319</v>
+      </c>
+      <c r="O16">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P16">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q16">
+        <v>0.011813174698</v>
+      </c>
+      <c r="R16">
+        <v>0.106318572282</v>
+      </c>
+      <c r="S16">
+        <v>0.000351304290182894</v>
+      </c>
+      <c r="T16">
+        <v>0.0004792889493476535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.330226</v>
+      </c>
+      <c r="H17">
+        <v>0.9906779999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.115295644696716</v>
+      </c>
+      <c r="J17">
+        <v>0.1214995588537212</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N17">
+        <v>0.19391</v>
+      </c>
+      <c r="O17">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P17">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q17">
+        <v>0.02134470788666667</v>
+      </c>
+      <c r="R17">
+        <v>0.19210237098</v>
+      </c>
+      <c r="S17">
+        <v>0.0006347563330758299</v>
+      </c>
+      <c r="T17">
+        <v>0.0008660062073631278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.309849133771223</v>
-      </c>
-      <c r="H13">
-        <v>0.309849133771223</v>
-      </c>
-      <c r="I13">
-        <v>0.1568541796505542</v>
-      </c>
-      <c r="J13">
-        <v>0.1568541796505542</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.03038351982162</v>
-      </c>
-      <c r="N13">
-        <v>1.03038351982162</v>
-      </c>
-      <c r="O13">
-        <v>0.08996174171246844</v>
-      </c>
-      <c r="P13">
-        <v>0.08996174171246844</v>
-      </c>
-      <c r="Q13">
-        <v>0.3192634410688727</v>
-      </c>
-      <c r="R13">
-        <v>0.3192634410688727</v>
-      </c>
-      <c r="S13">
-        <v>0.01411087519624428</v>
-      </c>
-      <c r="T13">
-        <v>0.01411087519624428</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.330226</v>
+      </c>
+      <c r="H18">
+        <v>0.9906779999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.115295644696716</v>
+      </c>
+      <c r="J18">
+        <v>0.1214995588537212</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.689952</v>
+      </c>
+      <c r="N18">
+        <v>8.069856</v>
+      </c>
+      <c r="O18">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P18">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q18">
+        <v>0.8882920891519999</v>
+      </c>
+      <c r="R18">
+        <v>7.994628802367999</v>
+      </c>
+      <c r="S18">
+        <v>0.02641633852307763</v>
+      </c>
+      <c r="T18">
+        <v>0.03604014949474797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.330226</v>
+      </c>
+      <c r="H19">
+        <v>0.9906779999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.115295644696716</v>
+      </c>
+      <c r="J19">
+        <v>0.1214995588537212</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.099586</v>
+      </c>
+      <c r="N19">
+        <v>2.199172</v>
+      </c>
+      <c r="O19">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P19">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q19">
+        <v>0.363111886436</v>
+      </c>
+      <c r="R19">
+        <v>2.178671318616</v>
+      </c>
+      <c r="S19">
+        <v>0.01079834733528213</v>
+      </c>
+      <c r="T19">
+        <v>0.009821549188072737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8393660000000001</v>
+      </c>
+      <c r="H20">
+        <v>2.518098</v>
+      </c>
+      <c r="I20">
+        <v>0.2930576154103668</v>
+      </c>
+      <c r="J20">
+        <v>0.3088266784469199</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.9164455</v>
+      </c>
+      <c r="N20">
+        <v>13.832891</v>
+      </c>
+      <c r="O20">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P20">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q20">
+        <v>5.805429193553</v>
+      </c>
+      <c r="R20">
+        <v>34.832575161318</v>
+      </c>
+      <c r="S20">
+        <v>0.1726438687471096</v>
+      </c>
+      <c r="T20">
+        <v>0.1570268297796524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8393660000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.518098</v>
+      </c>
+      <c r="I21">
+        <v>0.2930576154103668</v>
+      </c>
+      <c r="J21">
+        <v>0.3088266784469199</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N21">
+        <v>2.802176</v>
+      </c>
+      <c r="O21">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P21">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q21">
+        <v>0.7840170868053334</v>
+      </c>
+      <c r="R21">
+        <v>7.056153781248001</v>
+      </c>
+      <c r="S21">
+        <v>0.02331537230360597</v>
+      </c>
+      <c r="T21">
+        <v>0.03180946150480238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8393660000000001</v>
+      </c>
+      <c r="H22">
+        <v>2.518098</v>
+      </c>
+      <c r="I22">
+        <v>0.2930576154103668</v>
+      </c>
+      <c r="J22">
+        <v>0.3088266784469199</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.035773</v>
+      </c>
+      <c r="N22">
+        <v>0.107319</v>
+      </c>
+      <c r="O22">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P22">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q22">
+        <v>0.030026639918</v>
+      </c>
+      <c r="R22">
+        <v>0.270239759262</v>
+      </c>
+      <c r="S22">
+        <v>0.0008929426418078984</v>
+      </c>
+      <c r="T22">
+        <v>0.001218253100174252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8393660000000001</v>
+      </c>
+      <c r="H23">
+        <v>2.518098</v>
+      </c>
+      <c r="I23">
+        <v>0.2930576154103668</v>
+      </c>
+      <c r="J23">
+        <v>0.3088266784469199</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N23">
+        <v>0.19391</v>
+      </c>
+      <c r="O23">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P23">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q23">
+        <v>0.05425382035333334</v>
+      </c>
+      <c r="R23">
+        <v>0.4882843831800001</v>
+      </c>
+      <c r="S23">
+        <v>0.001613418944203446</v>
+      </c>
+      <c r="T23">
+        <v>0.002201208161227642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8393660000000001</v>
+      </c>
+      <c r="H24">
+        <v>2.518098</v>
+      </c>
+      <c r="I24">
+        <v>0.2930576154103668</v>
+      </c>
+      <c r="J24">
+        <v>0.3088266784469199</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.689952</v>
+      </c>
+      <c r="N24">
+        <v>8.069856</v>
+      </c>
+      <c r="O24">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P24">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q24">
+        <v>2.257854250432</v>
+      </c>
+      <c r="R24">
+        <v>20.320688253888</v>
+      </c>
+      <c r="S24">
+        <v>0.06714485352686216</v>
+      </c>
+      <c r="T24">
+        <v>0.09160658494730468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8393660000000001</v>
+      </c>
+      <c r="H25">
+        <v>2.518098</v>
+      </c>
+      <c r="I25">
+        <v>0.2930576154103668</v>
+      </c>
+      <c r="J25">
+        <v>0.3088266784469199</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.099586</v>
+      </c>
+      <c r="N25">
+        <v>2.199172</v>
+      </c>
+      <c r="O25">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P25">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q25">
+        <v>0.922955102476</v>
+      </c>
+      <c r="R25">
+        <v>5.537730614856</v>
+      </c>
+      <c r="S25">
+        <v>0.02744715924677773</v>
+      </c>
+      <c r="T25">
+        <v>0.02496434095375852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.320466</v>
+      </c>
+      <c r="H26">
+        <v>0.961398</v>
+      </c>
+      <c r="I26">
+        <v>0.1118880223646164</v>
+      </c>
+      <c r="J26">
+        <v>0.1179085766342342</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.9164455</v>
+      </c>
+      <c r="N26">
+        <v>13.832891</v>
+      </c>
+      <c r="O26">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P26">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q26">
+        <v>2.216485623603</v>
+      </c>
+      <c r="R26">
+        <v>13.298913741618</v>
+      </c>
+      <c r="S26">
+        <v>0.06591461894085679</v>
+      </c>
+      <c r="T26">
+        <v>0.05995210674743327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.320466</v>
+      </c>
+      <c r="H27">
+        <v>0.961398</v>
+      </c>
+      <c r="I27">
+        <v>0.1118880223646164</v>
+      </c>
+      <c r="J27">
+        <v>0.1179085766342342</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N27">
+        <v>2.802176</v>
+      </c>
+      <c r="O27">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P27">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q27">
+        <v>0.299334044672</v>
+      </c>
+      <c r="R27">
+        <v>2.694006402048</v>
+      </c>
+      <c r="S27">
+        <v>0.008901699736047673</v>
+      </c>
+      <c r="T27">
+        <v>0.01214470313379145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.320466</v>
+      </c>
+      <c r="H28">
+        <v>0.961398</v>
+      </c>
+      <c r="I28">
+        <v>0.1118880223646164</v>
+      </c>
+      <c r="J28">
+        <v>0.1179085766342342</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.035773</v>
+      </c>
+      <c r="N28">
+        <v>0.107319</v>
+      </c>
+      <c r="O28">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P28">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q28">
+        <v>0.011464030218</v>
+      </c>
+      <c r="R28">
+        <v>0.103176271962</v>
+      </c>
+      <c r="S28">
+        <v>0.0003409213104290737</v>
+      </c>
+      <c r="T28">
+        <v>0.0004651233168849368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.320466</v>
+      </c>
+      <c r="H29">
+        <v>0.961398</v>
+      </c>
+      <c r="I29">
+        <v>0.1118880223646164</v>
+      </c>
+      <c r="J29">
+        <v>0.1179085766342342</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N29">
+        <v>0.19391</v>
+      </c>
+      <c r="O29">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P29">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q29">
+        <v>0.02071385402</v>
+      </c>
+      <c r="R29">
+        <v>0.18642468618</v>
+      </c>
+      <c r="S29">
+        <v>0.0006159957817842293</v>
+      </c>
+      <c r="T29">
+        <v>0.0008404109465906141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.320466</v>
+      </c>
+      <c r="H30">
+        <v>0.961398</v>
+      </c>
+      <c r="I30">
+        <v>0.1118880223646164</v>
+      </c>
+      <c r="J30">
+        <v>0.1179085766342342</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.689952</v>
+      </c>
+      <c r="N30">
+        <v>8.069856</v>
+      </c>
+      <c r="O30">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P30">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q30">
+        <v>0.8620381576319999</v>
+      </c>
+      <c r="R30">
+        <v>7.758343418688</v>
+      </c>
+      <c r="S30">
+        <v>0.02563558999332759</v>
+      </c>
+      <c r="T30">
+        <v>0.03497496426079081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.320466</v>
+      </c>
+      <c r="H31">
+        <v>0.961398</v>
+      </c>
+      <c r="I31">
+        <v>0.1118880223646164</v>
+      </c>
+      <c r="J31">
+        <v>0.1179085766342342</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.099586</v>
+      </c>
+      <c r="N31">
+        <v>2.199172</v>
+      </c>
+      <c r="O31">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P31">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q31">
+        <v>0.352379927076</v>
+      </c>
+      <c r="R31">
+        <v>2.114279562456</v>
+      </c>
+      <c r="S31">
+        <v>0.01047919660217101</v>
+      </c>
+      <c r="T31">
+        <v>0.009531268228743096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.101233</v>
+      </c>
+      <c r="H32">
+        <v>0.202466</v>
+      </c>
+      <c r="I32">
+        <v>0.03534465487145972</v>
+      </c>
+      <c r="J32">
+        <v>0.02483100430500881</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.9164455</v>
+      </c>
+      <c r="N32">
+        <v>13.832891</v>
+      </c>
+      <c r="O32">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P32">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q32">
+        <v>0.7001725273015</v>
+      </c>
+      <c r="R32">
+        <v>2.800690109206</v>
+      </c>
+      <c r="S32">
+        <v>0.02082197368594408</v>
+      </c>
+      <c r="T32">
+        <v>0.01262563812773256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.101233</v>
+      </c>
+      <c r="H33">
+        <v>0.202466</v>
+      </c>
+      <c r="I33">
+        <v>0.03534465487145972</v>
+      </c>
+      <c r="J33">
+        <v>0.02483100430500881</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N33">
+        <v>2.802176</v>
+      </c>
+      <c r="O33">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P33">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q33">
+        <v>0.09455756100266667</v>
+      </c>
+      <c r="R33">
+        <v>0.5673453660160001</v>
+      </c>
+      <c r="S33">
+        <v>0.002811985575316302</v>
+      </c>
+      <c r="T33">
+        <v>0.002557618660207552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.101233</v>
+      </c>
+      <c r="H34">
+        <v>0.202466</v>
+      </c>
+      <c r="I34">
+        <v>0.03534465487145972</v>
+      </c>
+      <c r="J34">
+        <v>0.02483100430500881</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.035773</v>
+      </c>
+      <c r="N34">
+        <v>0.107319</v>
+      </c>
+      <c r="O34">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P34">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q34">
+        <v>0.003621408109</v>
+      </c>
+      <c r="R34">
+        <v>0.021728448654</v>
+      </c>
+      <c r="S34">
+        <v>0.0001076946915387792</v>
+      </c>
+      <c r="T34">
+        <v>9.795283272528715E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.101233</v>
+      </c>
+      <c r="H35">
+        <v>0.202466</v>
+      </c>
+      <c r="I35">
+        <v>0.03534465487145972</v>
+      </c>
+      <c r="J35">
+        <v>0.02483100430500881</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N35">
+        <v>0.19391</v>
+      </c>
+      <c r="O35">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P35">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q35">
+        <v>0.006543363676666668</v>
+      </c>
+      <c r="R35">
+        <v>0.03926018206000001</v>
+      </c>
+      <c r="S35">
+        <v>0.0001945888205842832</v>
+      </c>
+      <c r="T35">
+        <v>0.0001769866826355113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.101233</v>
+      </c>
+      <c r="H36">
+        <v>0.202466</v>
+      </c>
+      <c r="I36">
+        <v>0.03534465487145972</v>
+      </c>
+      <c r="J36">
+        <v>0.02483100430500881</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.689952</v>
+      </c>
+      <c r="N36">
+        <v>8.069856</v>
+      </c>
+      <c r="O36">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P36">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q36">
+        <v>0.272311910816</v>
+      </c>
+      <c r="R36">
+        <v>1.633871464896</v>
+      </c>
+      <c r="S36">
+        <v>0.008098106138543658</v>
+      </c>
+      <c r="T36">
+        <v>0.007365566720572824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.101233</v>
+      </c>
+      <c r="H37">
+        <v>0.202466</v>
+      </c>
+      <c r="I37">
+        <v>0.03534465487145972</v>
+      </c>
+      <c r="J37">
+        <v>0.02483100430500881</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.099586</v>
+      </c>
+      <c r="N37">
+        <v>2.199172</v>
+      </c>
+      <c r="O37">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P37">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q37">
+        <v>0.111314389538</v>
+      </c>
+      <c r="R37">
+        <v>0.445257558152</v>
+      </c>
+      <c r="S37">
+        <v>0.003310305959532611</v>
+      </c>
+      <c r="T37">
+        <v>0.002007241281135076</v>
       </c>
     </row>
   </sheetData>
